--- a/GRARED_P.xlsx
+++ b/GRARED_P.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Latitude</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">     Altitude        (m)</t>
-  </si>
-  <si>
     <t>Tempo da Leitura</t>
   </si>
   <si>
     <t>Horas</t>
   </si>
   <si>
-    <t>Azimute de navegação</t>
-  </si>
-  <si>
     <t>Pressão Atmosf. (kPa)</t>
   </si>
   <si>
@@ -57,22 +51,13 @@
     <t>Seg.</t>
   </si>
   <si>
-    <t>Fator Gravim.</t>
-  </si>
-  <si>
-    <t>G.  Med.lido</t>
-  </si>
-  <si>
-    <t>Dens. Crustal (g/cm3)</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
-    <t>Velocidade do  Navio(nos)</t>
-  </si>
-  <si>
-    <t>Fuso Horario</t>
+    <t>Leituras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Altitude  (m)</t>
   </si>
 </sst>
 </file>
@@ -109,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,7 +146,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -172,32 +159,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -213,13 +176,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -228,28 +185,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -258,8 +218,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,164 +525,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="6.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="6.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="6"/>
-    <col min="11" max="11" width="7.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="15.7109375" style="7"/>
+    <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="15.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V4" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V6" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V8" s="6"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="7">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GRARED_P.xlsx
+++ b/GRARED_P.xlsx
@@ -191,25 +191,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -525,18 +525,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
@@ -558,7 +557,7 @@
     <col min="23" max="16384" width="15.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
@@ -567,37 +566,38 @@
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="13" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="13" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="8"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
       <c r="D2" s="7">
@@ -621,7 +621,7 @@
       <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
@@ -637,8 +637,9 @@
       <c r="P2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="8"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/GRARED_P.xlsx
+++ b/GRARED_P.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Latitude</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Tempo da Leitura</t>
-  </si>
-  <si>
     <t>Horas</t>
   </si>
   <si>
@@ -39,25 +36,25 @@
     <t>Min.</t>
   </si>
   <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
     <t>Gra.</t>
   </si>
   <si>
     <t>Seg.</t>
   </si>
   <si>
-    <t>Mes</t>
-  </si>
-  <si>
     <t>Leituras</t>
   </si>
   <si>
     <t xml:space="preserve">     Altitude  (m)</t>
+  </si>
+  <si>
+    <t>Tempo da Leit.</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Altura Instr. (m)</t>
   </si>
 </sst>
 </file>
@@ -168,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +194,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" readingOrder="1"/>
     </xf>
@@ -223,6 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,64 +542,62 @@
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="15.7109375" style="5"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="15.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -603,53 +607,46 @@
       <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="11"/>
       <c r="L2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="8">
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:P1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GRARED_P.xlsx
+++ b/GRARED_P.xlsx
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -161,11 +164,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,6 +244,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,17 +548,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="5" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
@@ -636,6 +654,51 @@
       <c r="O2" s="12"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
